--- a/vns.xlsx
+++ b/vns.xlsx
@@ -469,12 +469,22 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>MAL avg. rating</t>
+          <t>Average sentence length</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>MAL rating count</t>
+          <t>Characters</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>VNDB avg. rating</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>VNDB rating count</t>
         </is>
       </c>
     </row>
